--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
   <si>
     <t>Version name</t>
   </si>
@@ -743,6 +743,18 @@
   <si>
     <t>We should first check if a SUNA sensor is mounted on the float before adding 'on the fly' missing associated parameters.
 Bug corrected in float/cycle/profile numbers of the output log contents.</t>
+  </si>
+  <si>
+    <t>007a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20160916_007a</t>
+  </si>
+  <si>
+    <t>Based on' 006b' version: 
+ - 6 new Apex Argos decoders (92 floats)
+ - few corrections on previous version</t>
   </si>
 </sst>
 </file>
@@ -1143,13 +1155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,6 +1956,23 @@
         <v>176</v>
       </c>
     </row>
+    <row r="47" spans="1:5" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="10">
+        <v>42629</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="198">
   <si>
     <t>Version name</t>
   </si>
@@ -755,6 +755,66 @@
     <t>Based on' 006b' version: 
  - 6 new Apex Argos decoders (92 floats)
  - few corrections on previous version</t>
+  </si>
+  <si>
+    <t>007b</t>
+  </si>
+  <si>
+    <t>compute_nva_dates_1_2.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (19/09/2016 17:52)</t>
+  </si>
+  <si>
+    <t>From NOVA float 6903179 we only received hydraulic message for its cycle #161 =&gt; we should manage cycle timings accordingly.</t>
+  </si>
+  <si>
+    <t>007c</t>
+  </si>
+  <si>
+    <t>compute_BBP700_301.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (20/09/2016 16:33)</t>
+  </si>
+  <si>
+    <t>To process BBP700 for FLBB INCOIS floats the angular is 142 degree and the khi coef 1.097.</t>
+  </si>
+  <si>
+    <t>007d</t>
+  </si>
+  <si>
+    <t>compute_apx_times.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (21/09/2016 09:38)</t>
+  </si>
+  <si>
+    <t>For Apex TST processing, use the 'improved method' before the TWR one (we had a bad trans repetition period in de data base which cause erroneous TST)</t>
+  </si>
+  <si>
+    <t>007e</t>
+  </si>
+  <si>
+    <t>Mail (22/09/2016 11:54)</t>
+  </si>
+  <si>
+    <t>Complement to '007d' patch.</t>
+  </si>
+  <si>
+    <t>008a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20161021_008a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on' 007e' version: 
+ - 2 new Apex Argos decoders (5 floats)
+ - improvement of Iridium decoders: rsync log parsing, Bio data decoding, using virtual buffers </t>
   </si>
 </sst>
 </file>
@@ -1155,13 +1215,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,6 +2033,91 @@
         <v>179</v>
       </c>
     </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="5">
+        <v>42632</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="5">
+        <v>42633</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="5">
+        <v>42634</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="5">
+        <v>42635</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="10">
+        <v>42664</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA05BC6-3FAF-4D87-B4C9-A74F37EECA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B05E2E0-1FC2-43B5-B8D2-238E59B26F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1146">
   <si>
     <t>Version name</t>
   </si>
@@ -5332,6 +5332,161 @@
     <t>Based on '051m' version: 
  - update of Arvor C (5.3 and 5.301) decoders (decId 219 and 220) so that the generated files are compliant with the GDAC checker ckecks.
  - update of Arvor CM (5.31 and 5.32) decoders (decId 302 and 303) so that the generated files are compliant with the GDAC checker ckecks.</t>
+  </si>
+  <si>
+    <t>052b</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+collect_technical_data_cts5_usea.m
+_config_param_name_129.json</t>
+  </si>
+  <si>
+    <t>Update of decoder #129 (CTS5 JUMBO floats 7.14) so that output files are compliant with the GDAC file checker file_checker_exec_v2.7.03_2022-06-01_spec_v2.7_2022-09-26.</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_222_223_225.m</t>
+  </si>
+  <si>
+    <t>Manage specificities of 7901014 transmissions.</t>
+  </si>
+  <si>
+    <t>052c</t>
+  </si>
+  <si>
+    <t>052d</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6903109 transmissions.</t>
+  </si>
+  <si>
+    <t>052e</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6904080 transmissions.</t>
+  </si>
+  <si>
+    <t>052f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+sensor_2_value_for_temp_cndc_224.m</t>
+  </si>
+  <si>
+    <t>Manage issue in coding of TEMP_CNDC values (when &gt; 27.767 °C).</t>
+  </si>
+  <si>
+    <t>052g</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+process_float_tech_data_ir_rudics_111_113_114_115_one.m</t>
+  </si>
+  <si>
+    <t>Manage CONFIG_PX_0_0_0_0_3 and CONFIG_PX_0_0_0_0_4 configuration AUX parameters transmitted in TECH data.</t>
+  </si>
+  <si>
+    <t>052h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+decode_provor_iridium_rudics_cts5_usea.m                
+process_profile_ir_rudics_cts5_usea_crover.m            
+process_profile_ir_rudics_cts5_usea_ctd.m               
+process_profile_ir_rudics_cts5_usea_do.m                
+process_profile_ir_rudics_cts5_usea_eco.m               
+process_profile_ir_rudics_cts5_usea_eco2.m              
+process_profile_ir_rudics_cts5_usea_eco3.m              
+process_profile_ir_rudics_cts5_usea_hydroc.m            
+process_profile_ir_rudics_cts5_usea_imu_raw.m           
+process_profile_ir_rudics_cts5_usea_imu_tilt_heading.m  
+process_profile_ir_rudics_cts5_usea_imu_wave.m          
+process_profile_ir_rudics_cts5_usea_mpe.m               
+process_profile_ir_rudics_cts5_usea_ocr.m               
+process_profile_ir_rudics_cts5_usea_opus_black.m        
+process_profile_ir_rudics_cts5_usea_opus_light.m        
+process_profile_ir_rudics_cts5_usea_ramses.m            
+process_profile_ir_rudics_cts5_usea_ramses2.m           
+process_profile_ir_rudics_cts5_usea_sbeph.m             
+process_profile_ir_rudics_cts5_usea_suna.m              
+process_profile_ir_rudics_cts5_usea_uvp_black.m         
+process_profile_ir_rudics_cts5_usea_uvp_black_v2.m      
+process_profile_ir_rudics_cts5_usea_uvp_lpm.m           
+process_profile_ir_rudics_cts5_usea_uvp_lpm_v2.m        
+process_profile_ir_rudics_cts5_usea_uvp_taxo_v2.m       </t>
+  </si>
+  <si>
+    <t>For Provor CTS5-USEA versions: manage data sampled during the "descent to profile depth" phase (deep profile).</t>
+  </si>
+  <si>
+    <t>052i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+get_meta_data_cts5_126.m
+get_meta_data_cts5_127.m
+get_meta_data_cts5_128.m
+get_meta_data_cts5_129.m   </t>
+  </si>
+  <si>
+    <t>Bug in generate_json_float_meta_prv_cts5_ir_rudics tool.</t>
+  </si>
+  <si>
+    <t>052j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+get_meta_data_cts5_129.m   </t>
+  </si>
+  <si>
+    <t>Bug in generate_json_float_meta_prv_cts5_ir_rudics tool (to be sure that generated file is similar with generate_json_float_meta_prv_cts5_ir_rudics and generate_json_float_meta_prv_cts5_ir_rudics_rt).</t>
+  </si>
+  <si>
+    <t>052k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m  
+create_decoding_buffers_221.m                  
+create_decoding_buffers_222_223_225.m          
+create_decoding_buffers_224.m </t>
+  </si>
+  <si>
+    <t>Improve automatic buffer generation for CTS4 floats (specific processing are removed).</t>
+  </si>
+  <si>
+    <t>052l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_cts4.m </t>
+  </si>
+  <si>
+    <t>Manage reset of float 6903247.</t>
+  </si>
+  <si>
+    <t>053a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20221110_053a</t>
+  </si>
+  <si>
+    <t>Based on '052l' version: 
+ - new decoder for Provor CTS5 Jumbo (7.15) .
+ - new decoder for Provor CTS5 Jumbo (7.16 .
+ - rescue mode to read erroneous CTS5 SYSTEM files.
+ - rescue mode to read erroneous CTS5 ECO3 data files.</t>
   </si>
 </sst>
 </file>
@@ -5784,11 +5939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:E369"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E368" sqref="E368"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E380" sqref="E379:E380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11870,6 +12025,210 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="358" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A358" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B358" s="5">
+        <v>44830</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E358" s="7" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A359" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B359" s="5">
+        <v>44837</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E359" s="7" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A360" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B360" s="5">
+        <v>44837</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E360" s="7" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A361" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B361" s="5">
+        <v>44841</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E361" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A362" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B362" s="5">
+        <v>44847</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E362" s="7" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A363" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B363" s="5">
+        <v>44851</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E363" s="7" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A364" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B364" s="5">
+        <v>44853</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E364" s="7" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A365" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B365" s="5">
+        <v>44855</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A366" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B366" s="5">
+        <v>44868</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E366" s="7" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A367" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B367" s="5">
+        <v>44868</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E367" s="7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B368" s="5">
+        <v>44869</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E368" s="7" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B369" s="11">
+        <v>44875</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D369" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E369" s="14" t="s">
+        <v>1145</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
